--- a/project/general/excel/oscem_schemas_general.xlsx
+++ b/project/general/excel/oscem_schemas_general.xlsx
@@ -16,27 +16,28 @@
     <sheet name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Detector" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Instrument" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Microscope" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Sample" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Grid" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="SampleMolecular" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Organizational" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Person" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Author" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Grant" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Funder" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="EMDatasetGeneral" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="AcquisitionSpa" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EnergyFilter" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SpecialistOptics" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Phaseplate" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Detector" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Instrument" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Microscope" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Sample" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="OverallMolecule" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Molecule" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Ligand" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Specimen" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Grid" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="SampleMolecular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Organizational" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Person" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Author" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Grant" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Funder" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="EMDatasetGeneral" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,6 +461,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -490,7 +652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -526,7 +688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -557,7 +719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -588,7 +750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -619,7 +781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -660,7 +822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -726,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -757,7 +919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -813,7 +975,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -867,38 +1060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -964,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1000,7 +1162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,7 +1309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +1365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1239,7 +1401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1285,7 +1447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1361,7 +1523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +1574,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,43 +1651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1711,146 +1873,151 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>screen_current</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>nominal_defocus</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>calibrated_defocus</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>nominal_magnification</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>calibrated_magnification</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>holder</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>holder_cryogen</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>temperature_range</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>microscope_software</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>detectors</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>dose_per_movie</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>energy_filter</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>image_size</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>date_time</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>cryogen</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>frames_per_movie</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>grids_imaged</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>images_generated</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>binning_camera</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>specialist_optics</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>beamshift</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>beamtilt</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>imageshift</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>beamtiltgroups</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>gainref_flip_rotate</t>
         </is>
